--- a/Files/input.xlsx
+++ b/Files/input.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://knowledgecornerin-my.sharepoint.com/personal/vaidehi_nair_knowledgecorner_in/Documents/Course Material/Clients/Virtua Search/Excel Python Integration/Files/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://knowledgecornerin-my.sharepoint.com/personal/vaidehi_nair_knowledgecorner_in/Documents/Course Material/Clients/Virtua Search/Vituare-Research/Files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="11_D5FA367312612CBF6F2718165B4E7E38F22547AE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C6FCD633-CBCF-514B-B284-83ECCFB32B53}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="11_F5E7FBB3144276AE644734944AD6A6FE77544784" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="19406" windowHeight="11486" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="26772" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
   <si>
     <t>Name</t>
   </si>
@@ -59,13 +59,16 @@
     <t>Jane</t>
   </si>
   <si>
-    <t>Average</t>
+    <t>Good</t>
   </si>
   <si>
     <t>Jack</t>
   </si>
   <si>
-    <t>Good</t>
+    <t>Poor</t>
+  </si>
+  <si>
+    <t>Sam</t>
   </si>
 </sst>
 </file>
@@ -121,10 +124,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -444,13 +443,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="5" max="6" width="13" hidden="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
@@ -462,16 +464,16 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
@@ -485,19 +487,19 @@
       <c r="C2" s="1">
         <v>50000</v>
       </c>
-      <c r="D2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2">
-        <f>IF(D2="Excellent", C2 * 0.12, IF(D2="Good", C2 * 0.1, IF(D2="Average", C2 * 0.07, IF(D2="Below Average", C2 * 0.05, C2 * 0.01))))</f>
+      <c r="D2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="1">
+        <f>IF(D2 = "Excellent", C2 * 0.12, IF(D2 = "Good", C2 * 0.1, IF(D2 = "Average", C2 * 0.08, IF(D2 = "Below Average", C2 * 0.05, IF(D2 = "Poor", C2 * 0.02, 0)))))</f>
         <v>5000</v>
       </c>
-      <c r="F2">
-        <f>(C2+E2)*0.1</f>
+      <c r="F2" s="1">
+        <f>(C2 + E2) * 0.1</f>
         <v>5500</v>
       </c>
-      <c r="G2">
-        <f>C2+E2-F2</f>
+      <c r="G2" s="1">
+        <f>C2 + E2 - F2</f>
         <v>49500</v>
       </c>
     </row>
@@ -511,25 +513,52 @@
       <c r="C3" s="1">
         <v>150000</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="1">
+        <f>IF(D3 = "Excellent", C3 * 0.12, IF(D3 = "Good", C3 * 0.1, IF(D3 = "Average", C3 * 0.08, IF(D3 = "Below Average", C3 * 0.05, IF(D3 = "Poor", C3 * 0.02, 0)))))</f>
+        <v>3000</v>
+      </c>
+      <c r="F3" s="1">
+        <f>(C3 + E3) * 0.1</f>
+        <v>15300</v>
+      </c>
+      <c r="G3" s="1">
+        <f>C3 + E3 - F3</f>
+        <v>137700</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="1">
+        <v>56</v>
+      </c>
+      <c r="C4" s="1">
+        <v>200000</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E3">
-        <f>IF(D3="Excellent", C3 * 0.12, IF(D3="Good", C3 * 0.1, IF(D3="Average", C3 * 0.07, IF(D3="Below Average", C3 * 0.05, C3 * 0.01))))</f>
-        <v>10500.000000000002</v>
-      </c>
-      <c r="F3">
-        <f>(C3+E3)*0.1</f>
-        <v>16050</v>
-      </c>
-      <c r="G3">
-        <f>C3+E3-F3</f>
-        <v>144450</v>
+      <c r="E4" s="1">
+        <f>IF(D4 = "Excellent", C4 * 0.12, IF(D4 = "Good", C4 * 0.1, IF(D4 = "Average", C4 * 0.08, IF(D4 = "Below Average", C4 * 0.05, IF(D4 = "Poor", C4 * 0.02, 0)))))</f>
+        <v>20000</v>
+      </c>
+      <c r="F4" s="1">
+        <f>(C4 + E4) * 0.1</f>
+        <v>22000</v>
+      </c>
+      <c r="G4" s="1">
+        <f>C4 + E4 - F4</f>
+        <v>198000</v>
       </c>
     </row>
   </sheetData>
+  <sheetProtection password="83AF" sheet="1"/>
   <dataValidations count="1">
-    <dataValidation type="list" error="Select from the list" prompt="Choose a performance rating" sqref="D2:D3" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" error="Invalid rating. Please select from the list." prompt="Select a rating" sqref="D2:D1048576" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"Excellent,Good,Average,Below Average,Poor"</formula1>
     </dataValidation>
   </dataValidations>

--- a/Files/input.xlsx
+++ b/Files/input.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://knowledgecornerin-my.sharepoint.com/personal/vaidehi_nair_knowledgecorner_in/Documents/Course Material/Clients/Virtua Search/Vituare-Research/Files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="11_F5E7FBB3144276AE644734944AD6A6FE77544784" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="11_F5E7B09B174F92EFE21D1C9455F5CEBD70524656" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BE073674-0E3D-472B-9414-F4542B03FB28}"/>
   <bookViews>
     <workbookView xWindow="26772" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Name</t>
   </si>
@@ -59,16 +59,19 @@
     <t>Jane</t>
   </si>
   <si>
-    <t>Good</t>
-  </si>
-  <si>
     <t>Jack</t>
   </si>
   <si>
-    <t>Poor</t>
-  </si>
-  <si>
     <t>Sam</t>
+  </si>
+  <si>
+    <t>Average</t>
+  </si>
+  <si>
+    <t>Excellent</t>
+  </si>
+  <si>
+    <t>Below Average</t>
   </si>
 </sst>
 </file>
@@ -104,10 +107,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
+      <protection locked="0" hidden="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -446,7 +452,7 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -464,7 +470,7 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
@@ -478,81 +484,81 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2" s="2">
         <v>33</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2" s="2">
         <v>50000</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="1">
+      <c r="D2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="2">
         <f>IF(D2 = "Excellent", C2 * 0.12, IF(D2 = "Good", C2 * 0.1, IF(D2 = "Average", C2 * 0.08, IF(D2 = "Below Average", C2 * 0.05, IF(D2 = "Poor", C2 * 0.02, 0)))))</f>
-        <v>5000</v>
-      </c>
-      <c r="F2" s="1">
+        <v>4000</v>
+      </c>
+      <c r="F2" s="2">
         <f>(C2 + E2) * 0.1</f>
-        <v>5500</v>
-      </c>
-      <c r="G2" s="1">
+        <v>5400</v>
+      </c>
+      <c r="G2" s="2">
         <f>C2 + E2 - F2</f>
-        <v>49500</v>
+        <v>48600</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="1">
+      <c r="A3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="2">
         <v>45</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="2">
         <v>150000</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="1">
+      <c r="D3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="2">
         <f>IF(D3 = "Excellent", C3 * 0.12, IF(D3 = "Good", C3 * 0.1, IF(D3 = "Average", C3 * 0.08, IF(D3 = "Below Average", C3 * 0.05, IF(D3 = "Poor", C3 * 0.02, 0)))))</f>
-        <v>3000</v>
-      </c>
-      <c r="F3" s="1">
+        <v>18000</v>
+      </c>
+      <c r="F3" s="2">
         <f>(C3 + E3) * 0.1</f>
-        <v>15300</v>
-      </c>
-      <c r="G3" s="1">
+        <v>16800</v>
+      </c>
+      <c r="G3" s="2">
         <f>C3 + E3 - F3</f>
-        <v>137700</v>
+        <v>151200</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="1">
+      <c r="A4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="2">
         <v>56</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="2">
         <v>200000</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="1">
+      <c r="D4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="2">
         <f>IF(D4 = "Excellent", C4 * 0.12, IF(D4 = "Good", C4 * 0.1, IF(D4 = "Average", C4 * 0.08, IF(D4 = "Below Average", C4 * 0.05, IF(D4 = "Poor", C4 * 0.02, 0)))))</f>
-        <v>20000</v>
-      </c>
-      <c r="F4" s="1">
+        <v>10000</v>
+      </c>
+      <c r="F4" s="2">
         <f>(C4 + E4) * 0.1</f>
-        <v>22000</v>
-      </c>
-      <c r="G4" s="1">
+        <v>21000</v>
+      </c>
+      <c r="G4" s="2">
         <f>C4 + E4 - F4</f>
-        <v>198000</v>
+        <v>189000</v>
       </c>
     </row>
   </sheetData>

--- a/Files/input.xlsx
+++ b/Files/input.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://knowledgecornerin-my.sharepoint.com/personal/vaidehi_nair_knowledgecorner_in/Documents/Course Material/Clients/Virtua Search/Vituare-Research/Files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="11_F5E7B09B174F92EFE21D1C9455F5CEBD70524656" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BE073674-0E3D-472B-9414-F4542B03FB28}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="11_F5E735B3D25154EFE21D1C9455AD7EF9503A41DA" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{023DCA04-3612-4F87-8082-5137670DEA9F}"/>
   <bookViews>
     <workbookView xWindow="26772" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
   <si>
     <t>Name</t>
   </si>
@@ -62,16 +62,13 @@
     <t>Jack</t>
   </si>
   <si>
+    <t>Excellent</t>
+  </si>
+  <si>
     <t>Sam</t>
   </si>
   <si>
-    <t>Average</t>
-  </si>
-  <si>
-    <t>Excellent</t>
-  </si>
-  <si>
-    <t>Below Average</t>
+    <t>Poor</t>
   </si>
 </sst>
 </file>
@@ -130,6 +127,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -452,7 +453,7 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -494,19 +495,19 @@
         <v>50000</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E2" s="2">
         <f>IF(D2 = "Excellent", C2 * 0.12, IF(D2 = "Good", C2 * 0.1, IF(D2 = "Average", C2 * 0.08, IF(D2 = "Below Average", C2 * 0.05, IF(D2 = "Poor", C2 * 0.02, 0)))))</f>
-        <v>4000</v>
+        <v>1000</v>
       </c>
       <c r="F2" s="2">
         <f>(C2 + E2) * 0.1</f>
-        <v>5400</v>
+        <v>5100</v>
       </c>
       <c r="G2" s="2">
         <f>C2 + E2 - F2</f>
-        <v>48600</v>
+        <v>45900</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.4">
@@ -520,7 +521,7 @@
         <v>150000</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E3" s="2">
         <f>IF(D3 = "Excellent", C3 * 0.12, IF(D3 = "Good", C3 * 0.1, IF(D3 = "Average", C3 * 0.08, IF(D3 = "Below Average", C3 * 0.05, IF(D3 = "Poor", C3 * 0.02, 0)))))</f>
@@ -537,7 +538,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A4" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B4" s="2">
         <v>56</v>
@@ -546,19 +547,19 @@
         <v>200000</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E4" s="2">
         <f>IF(D4 = "Excellent", C4 * 0.12, IF(D4 = "Good", C4 * 0.1, IF(D4 = "Average", C4 * 0.08, IF(D4 = "Below Average", C4 * 0.05, IF(D4 = "Poor", C4 * 0.02, 0)))))</f>
-        <v>10000</v>
+        <v>4000</v>
       </c>
       <c r="F4" s="2">
         <f>(C4 + E4) * 0.1</f>
-        <v>21000</v>
+        <v>20400</v>
       </c>
       <c r="G4" s="2">
         <f>C4 + E4 - F4</f>
-        <v>189000</v>
+        <v>183600</v>
       </c>
     </row>
   </sheetData>

--- a/Files/input.xlsx
+++ b/Files/input.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://knowledgecornerin-my.sharepoint.com/personal/vaidehi_nair_knowledgecorner_in/Documents/Course Material/Clients/Virtua Search/Vituare-Research/Files/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://knowledgecornerin-my.sharepoint.com/personal/vaidehi_nair_knowledgecorner_in/Documents/Course Material/Clients/Virtua Search/Excel Python Integration/Files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="11_F5E735B3D25154EFE21D1C9455AD7EF9503A41DA" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{023DCA04-3612-4F87-8082-5137670DEA9F}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="11_D5FA367312612CBF6F2718165B4E7E38F22547AE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C6FCD633-CBCF-514B-B284-83ECCFB32B53}"/>
   <bookViews>
-    <workbookView xWindow="26772" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="19406" windowHeight="11486" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Name</t>
   </si>
@@ -59,16 +59,13 @@
     <t>Jane</t>
   </si>
   <si>
+    <t>Average</t>
+  </si>
+  <si>
     <t>Jack</t>
   </si>
   <si>
-    <t>Excellent</t>
-  </si>
-  <si>
-    <t>Sam</t>
-  </si>
-  <si>
-    <t>Poor</t>
+    <t>Good</t>
   </si>
 </sst>
 </file>
@@ -104,13 +101,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
-      <protection locked="0" hidden="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -450,16 +444,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
-  <cols>
-    <col min="5" max="6" width="13" hidden="1" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
@@ -471,101 +462,74 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="1">
         <v>33</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="1">
         <v>50000</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" s="2">
-        <f>IF(D2 = "Excellent", C2 * 0.12, IF(D2 = "Good", C2 * 0.1, IF(D2 = "Average", C2 * 0.08, IF(D2 = "Below Average", C2 * 0.05, IF(D2 = "Poor", C2 * 0.02, 0)))))</f>
-        <v>1000</v>
-      </c>
-      <c r="F2" s="2">
-        <f>(C2 + E2) * 0.1</f>
-        <v>5100</v>
-      </c>
-      <c r="G2" s="2">
-        <f>C2 + E2 - F2</f>
-        <v>45900</v>
+      <c r="D2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2">
+        <f>IF(D2="Excellent", C2 * 0.12, IF(D2="Good", C2 * 0.1, IF(D2="Average", C2 * 0.07, IF(D2="Below Average", C2 * 0.05, C2 * 0.01))))</f>
+        <v>5000</v>
+      </c>
+      <c r="F2">
+        <f>(C2+E2)*0.1</f>
+        <v>5500</v>
+      </c>
+      <c r="G2">
+        <f>C2+E2-F2</f>
+        <v>49500</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="1">
+        <v>45</v>
+      </c>
+      <c r="C3" s="1">
+        <v>150000</v>
+      </c>
+      <c r="D3" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="2">
-        <v>45</v>
-      </c>
-      <c r="C3" s="2">
-        <v>150000</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="2">
-        <f>IF(D3 = "Excellent", C3 * 0.12, IF(D3 = "Good", C3 * 0.1, IF(D3 = "Average", C3 * 0.08, IF(D3 = "Below Average", C3 * 0.05, IF(D3 = "Poor", C3 * 0.02, 0)))))</f>
-        <v>18000</v>
-      </c>
-      <c r="F3" s="2">
-        <f>(C3 + E3) * 0.1</f>
-        <v>16800</v>
-      </c>
-      <c r="G3" s="2">
-        <f>C3 + E3 - F3</f>
-        <v>151200</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="2">
-        <v>56</v>
-      </c>
-      <c r="C4" s="2">
-        <v>200000</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" s="2">
-        <f>IF(D4 = "Excellent", C4 * 0.12, IF(D4 = "Good", C4 * 0.1, IF(D4 = "Average", C4 * 0.08, IF(D4 = "Below Average", C4 * 0.05, IF(D4 = "Poor", C4 * 0.02, 0)))))</f>
-        <v>4000</v>
-      </c>
-      <c r="F4" s="2">
-        <f>(C4 + E4) * 0.1</f>
-        <v>20400</v>
-      </c>
-      <c r="G4" s="2">
-        <f>C4 + E4 - F4</f>
-        <v>183600</v>
+      <c r="E3">
+        <f>IF(D3="Excellent", C3 * 0.12, IF(D3="Good", C3 * 0.1, IF(D3="Average", C3 * 0.07, IF(D3="Below Average", C3 * 0.05, C3 * 0.01))))</f>
+        <v>10500.000000000002</v>
+      </c>
+      <c r="F3">
+        <f>(C3+E3)*0.1</f>
+        <v>16050</v>
+      </c>
+      <c r="G3">
+        <f>C3+E3-F3</f>
+        <v>144450</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection password="83AF" sheet="1"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" error="Invalid rating. Please select from the list." prompt="Select a rating" sqref="D2:D1048576" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" error="Select from the list" prompt="Choose a performance rating" sqref="D2:D3" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"Excellent,Good,Average,Below Average,Poor"</formula1>
     </dataValidation>
   </dataValidations>
